--- a/接口用例.xlsx
+++ b/接口用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\urltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43DFB12-1EC5-4E85-9809-93BF56B50FF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3AD406-BAB4-4796-A6D6-266B3E2B9EC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前提操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否携带请求头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,17 +59,37 @@
     <t>login_005</t>
   </si>
   <si>
-    <t>登录接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.imooc.com/m/web/shizhanapi/loadmorepingjia.html?1'</t>
   </si>
   <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖数据所属字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>{</t>
     </r>
@@ -110,6 +118,182 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>'22'}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'cart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'23'}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'cart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'24'}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'cart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'25'}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'cart'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>'21'</t>
     </r>
     <r>
@@ -121,21 +305,26 @@
       </rPr>
       <t>}</t>
     </r>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,139 +668,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="89.44140625" customWidth="1"/>
+    <col min="3" max="3" width="89.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/接口用例.xlsx
+++ b/接口用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\urltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3AD406-BAB4-4796-A6D6-266B3E2B9EC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BC58C-1E60-456C-9E3C-7681AE290D0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,26 +305,6 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,159 +648,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="89.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/接口用例.xlsx
+++ b/接口用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\urltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BC58C-1E60-456C-9E3C-7681AE290D0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B18DA0-66EA-441D-AF74-54ABB851D3C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,170 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'cart'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'22'}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'cart'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'23'}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'cart'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'24'}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'cart'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'25'}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,45 +102,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'cart'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'21'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginout</t>
+  </si>
+  <si>
+    <t>"code":"200"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +144,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF9876AA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,12 +171,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,12 +465,12 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="89.44140625" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
@@ -664,6 +478,7 @@
     <col min="7" max="7" width="9.5546875" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -674,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -709,13 +524,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -726,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -743,13 +561,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -760,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -777,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
